--- a/Data/Transitions/18811919Translation.xlsx
+++ b/Data/Transitions/18811919Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="656">
   <si>
     <t>id</t>
   </si>
@@ -136,7 +136,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.01771820743133378}</t>
+    <t>{311.0: 0.01860608334454884}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -160,13 +160,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -184,7 +184,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -241,7 +241,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -256,25 +256,25 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9078772081380286, 762.0: 0.9384369566239015}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9651930696915546}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9079592705927964, 762.0: 0.9384369566239015}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9651714219077976}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.8079426948749397, 764.0: 0.02364448224537529}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.810614795845075, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -343,10 +343,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872}</t>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -355,7 +355,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -373,7 +373,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -466,6 +466,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -484,7 +487,7 @@
     <t>{249.0: 0.8123817247904839}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -526,7 +529,7 @@
     <t>{263.0: 1.0, 595.0: 0.0812373907195696}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
@@ -550,10 +553,10 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434104, 180.0: 0.019290841734807506}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434104, 180.0: 0.03163332341347582}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -574,7 +577,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.23822317750313451}</t>
+    <t>{311.0: 0.2053419793114096}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -631,10 +634,10 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.34956759217114247}</t>
-  </si>
-  <si>
-    <t>{602.0: 0.11309836927932668}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.34958350402840366}</t>
+  </si>
+  <si>
+    <t>{602.0: 0.07660787457687511}</t>
   </si>
   <si>
     <t>{587.0: 0.40862205765670456}</t>
@@ -646,7 +649,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.7440586150655317, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.7760519373440415, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -670,9 +673,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -682,7 +682,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -802,7 +802,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.06265772876882013}</t>
+    <t>{476.0: 1.0, 595.0: 0.06227844469636964}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -832,7 +832,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -877,7 +877,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.23553719008264462}</t>
+    <t>{534.0: 0.22213106348066866}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -907,7 +907,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -919,7 +919,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -982,7 +982,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1012,13 +1012,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6017222845787984}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6021015686512489}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1036,13 +1036,13 @@
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 0.8869016307206733}</t>
+    <t>{602.0: 0.9233921254231249}</t>
   </si>
   <si>
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 837.0: 0.04255546531013551}</t>
+    <t>{604.0: 1.0, 837.0: 0.043670899958325106}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1072,7 +1072,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1147,7 +1147,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1159,7 +1159,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1198,7 +1198,7 @@
     <t>{702.0: 0.7650732127476314}</t>
   </si>
   <si>
-    <t>{703.0: 0.716503881793138}</t>
+    <t>{703.0: 0.741020361473347}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1225,7 +1225,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.07327451393933096}</t>
+    <t>{733.0: 1.0, 147.0: 0.0792470449799883}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1258,7 +1258,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.02858764937119231, 703.0: 0.06822947621023358}</t>
+    <t>{147.0: 0.026817332075437603, 703.0: 0.06305846238191437}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1288,7 +1288,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.09019514181453697, 703.0: 0.21526664199662843}</t>
+    <t>{147.0: 0.08332082709949916, 703.0: 0.19592117614473858}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1303,13 +1303,13 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1396,7 +1396,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1414,7 +1414,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1432,7 +1432,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1450,7 +1450,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.6504324078288576}</t>
+    <t>{909.0: 0.6504164959715963}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1537,7 +1537,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1570,7 +1570,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.93016028215246}</t>
+    <t>{930.0: 0.9201405526273758}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1591,7 +1591,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
+    <t>{593.0: 0.24784505665281187}</t>
   </si>
   <si>
     <t>{910.0: 0.1834781652183478}</t>
@@ -1600,7 +1600,7 @@
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1651,7 +1651,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.12623867399284688}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1696,7 +1696,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009012, 762.0: 0.057901139999098836}</t>
+    <t>{141.0: 0.9421837681943132, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432473, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432472, 764.0: 0.041601197156752714}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1726,7 +1726,7 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.21109560362875088}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977653}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1738,7 +1738,7 @@
     <t>{206.0: 0.8527388535031847, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{212.0: 0.48788501026694037, 681.0: 0.5121149897330596}</t>
+    <t>{212.0: 0.4878850102669402, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -1756,109 +1756,112 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
+    <t>{581.0: 0.9502995340581317, 144.0: 0.0497004659418682}</t>
+  </si>
+  <si>
+    <t>{255.0: 0.8887904297740361, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
+  </si>
+  <si>
+    <t>{265.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.8563102176757466, 595.0: 0.14368978232425358}</t>
+  </si>
+  <si>
+    <t>{264.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{268.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{276.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.32047425234471777, 909.0: 0.6795257476552823}</t>
+  </si>
+  <si>
+    <t>{602.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{587.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.7846153846153844, 204.0: 0.2153846153846154}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
+  </si>
+  <si>
+    <t>{404.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{410.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{431.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
+  </si>
+  <si>
+    <t>{486.0: 0.881371991661929, 837.0: 0.1186280083380709}</t>
+  </si>
+  <si>
+    <t>{731.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{935.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{494.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{534.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
+  </si>
+  <si>
+    <t>{542.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{543.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{545.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{564.0: 0.9246077855267294, 565.0: 0.07539221447327048}</t>
+  </si>
+  <si>
+    <t>{565.0: 1.0}</t>
+  </si>
+  <si>
     <t>{581.0: 0.9502995340581318, 144.0: 0.0497004659418682}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740361, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
-  </si>
-  <si>
-    <t>{265.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.8563102176757466, 595.0: 0.14368978232425358}</t>
-  </si>
-  <si>
-    <t>{264.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{268.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{276.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.32047425234471777, 909.0: 0.6795257476552823}</t>
-  </si>
-  <si>
-    <t>{602.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{587.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.7841915382092489, 204.0: 0.21580846179075114}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
-  </si>
-  <si>
-    <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
-  </si>
-  <si>
-    <t>{404.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{410.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{431.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
-  </si>
-  <si>
-    <t>{486.0: 0.881371991661929, 837.0: 0.1186280083380709}</t>
-  </si>
-  <si>
-    <t>{731.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{935.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{494.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{534.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
-  </si>
-  <si>
-    <t>{542.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{543.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{545.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{564.0: 0.9223519621587966, 565.0: 0.07764803784120333}</t>
-  </si>
-  <si>
-    <t>{565.0: 1.0}</t>
-  </si>
-  <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124715, 837.0: 0.18177668218752852}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664718, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1882,7 +1885,7 @@
     <t>{615.0: 0.5922794117647059, 698.0: 0.11176470588235296, 751.0: 0.2959558823529412}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.29214237743451976}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -1918,10 +1921,10 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787178, 917.0: 0.07999122892128212}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.05790113999909883}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
@@ -1930,13 +1933,13 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414814, 486.0: 0.03103422505851863}</t>
+    <t>{837.0: 0.9689657749414813, 486.0: 0.031034225058518626}</t>
   </si>
   <si>
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -1960,19 +1963,19 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123948}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137406}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372655, 729.0: 0.3049207329627342}</t>
@@ -3972,7 +3975,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3994,29 +3997,29 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>578</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4027,40 +4030,40 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>579</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4071,7 +4074,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4093,40 +4096,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>581</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>582</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4137,7 +4140,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4148,7 +4151,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4159,7 +4162,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4170,7 +4173,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4181,62 +4184,62 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4247,7 +4250,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4258,7 +4261,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4269,7 +4272,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4280,40 +4283,40 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>586</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>587</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4324,7 +4327,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4335,7 +4338,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4346,7 +4349,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4357,7 +4360,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4368,29 +4371,29 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>551</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>187</v>
+        <v>551</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4401,29 +4404,29 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>588</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4434,7 +4437,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4456,7 +4459,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4467,7 +4470,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4489,7 +4492,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4500,7 +4503,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4522,7 +4525,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4533,7 +4536,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4555,7 +4558,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4577,84 +4580,84 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>589</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>211</v>
+        <v>594</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4665,7 +4668,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4676,7 +4679,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4687,7 +4690,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4698,7 +4701,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4709,7 +4712,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4720,7 +4723,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5870,7 +5873,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5892,7 +5895,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5980,7 +5983,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6079,7 +6082,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6090,7 +6093,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6200,7 +6203,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6222,7 +6225,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6343,7 +6346,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6354,7 +6357,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6365,7 +6368,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6376,7 +6379,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6409,7 +6412,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6453,7 +6456,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6475,7 +6478,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6519,7 +6522,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6618,7 +6621,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6651,7 +6654,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6662,7 +6665,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6717,7 +6720,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6728,7 +6731,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6761,7 +6764,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6772,7 +6775,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6783,7 +6786,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6849,7 +6852,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6860,7 +6863,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6882,7 +6885,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6937,7 +6940,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6959,7 +6962,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6992,7 +6995,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7003,7 +7006,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7047,7 +7050,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7234,7 +7237,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7289,7 +7292,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7388,7 +7391,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7399,7 +7402,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7520,7 +7523,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7564,7 +7567,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7652,7 +7655,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7696,7 +7699,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7707,7 +7710,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7806,7 +7809,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7839,7 +7842,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7850,7 +7853,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7916,7 +7919,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8026,7 +8029,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8059,7 +8062,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8103,7 +8106,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8114,7 +8117,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8136,7 +8139,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8202,7 +8205,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8235,7 +8238,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8279,7 +8282,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8312,7 +8315,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8323,7 +8326,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="545" spans="1:3">
